--- a/Varios/Estructura Futbol.xlsx
+++ b/Varios/Estructura Futbol.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cesar\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FootballMatchesDataSet\Varios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A96FFF-0E0B-4CDE-9DDD-5C0D7A68A10E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B61109A-F1B2-4602-A3B7-7B49CE18073B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset" sheetId="1" r:id="rId1"/>
@@ -427,7 +427,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -437,6 +437,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,14 +459,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -744,32 +751,34 @@
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" customWidth="1"/>
-    <col min="2" max="2" width="7.36328125" customWidth="1"/>
-    <col min="4" max="4" width="9.90625" customWidth="1"/>
-    <col min="5" max="5" width="15.1796875" customWidth="1"/>
-    <col min="6" max="7" width="9.81640625" customWidth="1"/>
-    <col min="8" max="8" width="8.6328125" customWidth="1"/>
-    <col min="10" max="10" width="15.81640625" customWidth="1"/>
-    <col min="11" max="11" width="15.1796875" customWidth="1"/>
-    <col min="12" max="13" width="17.81640625" customWidth="1"/>
-    <col min="14" max="14" width="17.08984375" customWidth="1"/>
-    <col min="15" max="15" width="18.54296875" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" style="4"/>
+    <col min="4" max="4" width="9.88671875" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" customWidth="1"/>
+    <col min="6" max="7" width="9.77734375" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" customWidth="1"/>
+    <col min="10" max="10" width="15.77734375" customWidth="1"/>
+    <col min="11" max="11" width="15.21875" customWidth="1"/>
+    <col min="12" max="13" width="17.77734375" customWidth="1"/>
+    <col min="14" max="14" width="17.109375" customWidth="1"/>
+    <col min="15" max="15" width="18.5546875" customWidth="1"/>
+    <col min="18" max="18" width="8.77734375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D1" t="s">
@@ -796,16 +805,16 @@
       <c r="K1" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>20</v>
       </c>
       <c r="P1" t="s">
@@ -814,18 +823,18 @@
       <c r="Q1" t="s">
         <v>11</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="4">
         <v>1</v>
       </c>
       <c r="D2">
@@ -834,10 +843,10 @@
       <c r="E2">
         <v>-200</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>-1</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>-1</v>
       </c>
       <c r="H2">
@@ -867,18 +876,18 @@
       <c r="Q2" t="s">
         <v>10</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
@@ -920,15 +929,15 @@
       <c r="Q3" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="R3" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="4">
         <v>34</v>
       </c>
       <c r="D4">
@@ -937,10 +946,10 @@
       <c r="E4">
         <v>200</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>1</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>1</v>
       </c>
       <c r="H4">
@@ -964,21 +973,21 @@
       <c r="N4">
         <v>2</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>53</v>
       </c>
@@ -997,18 +1006,18 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="18.6328125" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
     <col min="7" max="7" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -1022,7 +1031,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1030,12 +1039,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D5">
         <v>0</v>
       </c>
@@ -1043,7 +1052,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>29</v>
       </c>
@@ -1057,17 +1066,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>26</v>
       </c>
@@ -1075,7 +1084,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>27</v>
       </c>
@@ -1083,12 +1092,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E12" t="s">
         <v>38</v>
       </c>
@@ -1099,45 +1108,45 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G17" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G18" t="s">
         <v>46</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D19">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -1148,12 +1157,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>7</v>
       </c>
@@ -1171,7 +1180,7 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
